--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2601618.571550964</v>
+        <v>2710759.82511109</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8983486.006614946</v>
+        <v>9005932.882096969</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>77.9043574426328</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>115.6494876717509</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>104.1527721870139</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>152.5500793316769</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>99.50813874439712</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>239.2868020821906</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>79.41653965146573</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>56.01787375368374</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>149.4016305393512</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920584</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>81.54794474525431</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>61.50381674306306</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>93.38904885909318</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>212.8988206105702</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>47.88058113794184</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>152.2221689967094</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>40.96105405076475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.97607332171654</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>177.6965697803346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>212.3267021497101</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>79.69108391904159</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>24.83266606353065</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1630968205461</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>113.0992099793461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>24.83266606353065</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>60.78102717027888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3806,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560544</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3904,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1117.969728759938</v>
+        <v>1638.606399868181</v>
       </c>
       <c r="C2" t="n">
-        <v>1117.969728759938</v>
+        <v>1269.643882927769</v>
       </c>
       <c r="D2" t="n">
-        <v>759.7040301531875</v>
+        <v>1190.952612783695</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549433</v>
+        <v>1190.952612783695</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057398</v>
+        <v>779.9667079940879</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>363.5144466859625</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2377.974895202417</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>2025.206239932302</v>
       </c>
       <c r="X2" t="n">
-        <v>1508.10906073575</v>
+        <v>2025.206239932302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1117.969728759938</v>
+        <v>2025.206239932302</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193021</v>
+        <v>389.6842751995872</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507739</v>
+        <v>966.4070903028428</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1230.34662179833</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1515.680492231663</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1023.951796950387</v>
+        <v>932.7001609126449</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>932.7001609126449</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>782.5835215003092</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1157.111320137207</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>932.7001609126449</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>932.7001609126449</v>
       </c>
       <c r="V4" t="n">
-        <v>1244.744376093917</v>
+        <v>932.7001609126449</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.744376093917</v>
+        <v>932.7001609126449</v>
       </c>
       <c r="X4" t="n">
-        <v>1244.744376093917</v>
+        <v>932.7001609126449</v>
       </c>
       <c r="Y4" t="n">
-        <v>1023.951796950387</v>
+        <v>932.7001609126449</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829027</v>
+        <v>1991.836555840663</v>
       </c>
       <c r="C5" t="n">
-        <v>690.4032258886157</v>
+        <v>1991.836555840663</v>
       </c>
       <c r="D5" t="n">
-        <v>690.4032258886157</v>
+        <v>1633.570857233913</v>
       </c>
       <c r="E5" t="n">
-        <v>304.6149732903714</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>804.6133007477384</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>2092.34982729965</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>2092.34982729965</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919906</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>965.564585834469</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1606.587795454363</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>666.4533126227774</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>666.4533126227774</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1556.227393153825</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1333.24891234856</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.130574852398</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="V7" t="n">
-        <v>789.4460866465112</v>
+        <v>1068.894356596547</v>
       </c>
       <c r="W7" t="n">
-        <v>500.0289166095505</v>
+        <v>1068.894356596547</v>
       </c>
       <c r="X7" t="n">
-        <v>272.0393657115332</v>
+        <v>1068.894356596547</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.2467865680031</v>
+        <v>848.1017774530171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>1671.186287608629</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886161</v>
+        <v>1302.223770668217</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818656</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>1822.097025527165</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429759</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>455.9574707874393</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="C10" t="n">
-        <v>455.9574707874393</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D10" t="n">
-        <v>305.8408313751036</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429094</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U10" t="n">
-        <v>927.7205539329318</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="V10" t="n">
-        <v>865.5954865156964</v>
+        <v>1195.84951595396</v>
       </c>
       <c r="W10" t="n">
-        <v>865.5954865156964</v>
+        <v>1195.84951595396</v>
       </c>
       <c r="X10" t="n">
-        <v>637.6059356176791</v>
+        <v>967.8599650559424</v>
       </c>
       <c r="Y10" t="n">
-        <v>637.6059356176791</v>
+        <v>747.0673859124123</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5121,22 +5123,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1024.063349920562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5236,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5303,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5367,13 +5369,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2049.058935487114</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,34 +5530,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406468</v>
@@ -5741,19 +5743,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876784</v>
+        <v>3006.404946868833</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876784</v>
+        <v>3006.404946868833</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753426</v>
+        <v>2856.288307456497</v>
       </c>
       <c r="E22" t="n">
-        <v>430.7826650753426</v>
+        <v>2708.375213874104</v>
       </c>
       <c r="F22" t="n">
-        <v>283.8927175774322</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885337</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358027</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358027</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235174</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258115</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602313</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396426</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359466</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614482</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179181</v>
+        <v>3006.404946868833</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>738.9024366426769</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>590.9893430602838</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>444.0993955623734</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>276.9032962772533</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>135.1914651194514</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,19 +6311,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1723.711884091971</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385791</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.91413360155</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>2817.800993781637</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>3445.398957336244</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O30" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>580.8993044876688</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>580.8993044876688</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>432.9862109052757</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0962634073653</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>118.9001641222453</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>625.3800815101986</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.571434467152</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X34" t="n">
-        <v>3563.329808225389</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y34" t="n">
-        <v>3342.537229081859</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="35">
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D37" t="n">
-        <v>580.8993044876688</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E37" t="n">
-        <v>432.9862109052757</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0962634073653</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G37" t="n">
-        <v>118.9001641222453</v>
+        <v>210.4595134598044</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>680.448174698413</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1082.889218672183</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>862.0966395286528</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111729</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>175.8744207939072</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939072</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7734,16 +7736,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143846</v>
+        <v>193.0765664437954</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870218</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>256.7871481632763</v>
       </c>
       <c r="P6" t="n">
-        <v>138.9393975111051</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>299.8549597144492</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>73.85777223953465</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4.506629716718038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>117.643557154327</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>66.36248435538542</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>40.30478226780077</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>3.329716221310008</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>74.19629618688089</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>115.4620467826932</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.257951202385101</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>112.6104454096911</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4620467826932</v>
+        <v>24.81829093850965</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>164.9286282187583</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>790826.9118071441</v>
+        <v>813639.3549583795</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>790826.9118071441</v>
+        <v>790633.0892625264</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>790826.9118071441</v>
+        <v>790633.0892625264</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772278.7653906171</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.765390617</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
         <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520054</v>
@@ -26335,22 +26337,22 @@
         <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="L2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520048</v>
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695103</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695182</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26445,16 +26447,16 @@
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="O4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695042</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-681561.730240843</v>
+        <v>-531980.4336961226</v>
       </c>
       <c r="C6" t="n">
-        <v>433190.0533350767</v>
+        <v>261521.2120147771</v>
       </c>
       <c r="D6" t="n">
-        <v>433190.0533350767</v>
+        <v>434285.5718046694</v>
       </c>
       <c r="E6" t="n">
-        <v>30821.82777185681</v>
+        <v>37418.40165065184</v>
       </c>
       <c r="F6" t="n">
-        <v>538307.2693964029</v>
+        <v>538307.2693964025</v>
       </c>
       <c r="G6" t="n">
-        <v>538307.2693964029</v>
+        <v>538307.2693964026</v>
       </c>
       <c r="H6" t="n">
         <v>538307.2693964031</v>
       </c>
       <c r="I6" t="n">
-        <v>538307.269396403</v>
+        <v>538307.2693964029</v>
       </c>
       <c r="J6" t="n">
-        <v>370702.0915864202</v>
+        <v>368893.2525703551</v>
       </c>
       <c r="K6" t="n">
         <v>538307.2693964029</v>
       </c>
       <c r="L6" t="n">
-        <v>538307.2693964032</v>
+        <v>538307.269396403</v>
       </c>
       <c r="M6" t="n">
-        <v>405699.9756674762</v>
+        <v>407422.8124921675</v>
       </c>
       <c r="N6" t="n">
-        <v>538307.269396403</v>
+        <v>538307.2693964025</v>
       </c>
       <c r="O6" t="n">
-        <v>538307.2693964029</v>
+        <v>538307.2693964028</v>
       </c>
       <c r="P6" t="n">
         <v>538307.2693964026</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>276.7786841780502</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>254.0816130067181</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>63.09404891161392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>47.89744503962459</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>283.2257029190835</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>167.5892436595208</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.2459207102717</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>196.1197695701443</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>233.3322111241293</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802033</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>98.28403543668298</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>190.6338265807649</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31843,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745674</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302374</v>
       </c>
       <c r="P21" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>543.0832917018706</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209194</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,28 +33265,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948333</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>209.7242506524599</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34454,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578695</v>
+        <v>315.7261545955924</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>595.098946865833</v>
       </c>
       <c r="P6" t="n">
-        <v>388.6189266346374</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>397.620397467641</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>600.1700598319388</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>45.87687150790074</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579301</v>
       </c>
       <c r="P21" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066345</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>432.0572943778175</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.804909272815</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396434</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>82.88662398579322</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2710759.82511109</v>
+        <v>2706603.638803123</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9005932.882096969</v>
+        <v>9005932.88209697</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>77.9043574426328</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>259.4747088127887</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,10 +834,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>152.5500793316769</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>74.03593649474006</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.50813874439712</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>244.3231152050204</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>60.86538463674702</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>56.01787375368374</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>149.4016305393512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>65.81500930205705</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -1186,13 +1186,13 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.54794474525431</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>192.1818418163905</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678141</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>95.81917536083697</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.2221689967094</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>40.96105405076475</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>212.3267021497101</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.69108391904159</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>139.1630968205461</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4764219077142</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>87.21471514852939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1638.606399868181</v>
+        <v>1205.861746419399</v>
       </c>
       <c r="C2" t="n">
-        <v>1269.643882927769</v>
+        <v>1205.861746419399</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.952612783695</v>
+        <v>1205.861746419399</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.952612783695</v>
+        <v>820.0734938211549</v>
       </c>
       <c r="F2" t="n">
-        <v>779.9667079940879</v>
+        <v>409.0875890315473</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872677</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054598</v>
+        <v>846.2214751156638</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463063</v>
+        <v>1142.292041673267</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698648</v>
+        <v>1447.767147908852</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>1722.883367225487</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2241.768415604358</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2550.866182466515</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2377.974895202417</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2377.974895202417</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2377.974895202417</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="W2" t="n">
-        <v>2025.206239932302</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="X2" t="n">
-        <v>2025.206239932302</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="Y2" t="n">
-        <v>2025.206239932302</v>
+        <v>1592.461586483521</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
         <v>85.9974213009382</v>
@@ -4409,25 +4409,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>389.6842751995872</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>966.4070903028428</v>
+        <v>794.7800573025183</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.34662179833</v>
+        <v>1058.719588798006</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231663</v>
+        <v>1699.7427984179</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067085</v>
+        <v>1938.547750169359</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4442,10 +4442,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>932.7001609126449</v>
+        <v>833.9774911502419</v>
       </c>
       <c r="C4" t="n">
-        <v>932.7001609126449</v>
+        <v>665.041308222335</v>
       </c>
       <c r="D4" t="n">
-        <v>782.5835215003092</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>634.6704279179161</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200057</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4515,25 +4515,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1157.111320137207</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>932.7001609126449</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>932.7001609126449</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>932.7001609126449</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>932.7001609126449</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>932.7001609126449</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="Y4" t="n">
-        <v>932.7001609126449</v>
+        <v>1015.625955980482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1991.836555840663</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="C5" t="n">
-        <v>1991.836555840663</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="D5" t="n">
-        <v>1633.570857233913</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="E5" t="n">
         <v>1247.782604635669</v>
@@ -4561,28 +4561,28 @@
         <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477384</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.81558556073</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.81558556073</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.34982729965</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.34982729965</v>
+        <v>1634.38244469979</v>
       </c>
     </row>
     <row r="6">
@@ -4631,40 +4631,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421436</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M6" t="n">
-        <v>965.564585834469</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N6" t="n">
-        <v>1606.587795454363</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.4533126227774</v>
+        <v>727.1359052451305</v>
       </c>
       <c r="C7" t="n">
-        <v>666.4533126227774</v>
+        <v>558.1997223172236</v>
       </c>
       <c r="D7" t="n">
-        <v>516.3366732104416</v>
+        <v>408.0830829048879</v>
       </c>
       <c r="E7" t="n">
-        <v>368.4235796280485</v>
+        <v>260.1699893224948</v>
       </c>
       <c r="F7" t="n">
-        <v>368.4235796280485</v>
+        <v>113.2800418245844</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4725,52 +4725,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1068.894356596547</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1068.894356596547</v>
+        <v>1357.566500116918</v>
       </c>
       <c r="X7" t="n">
-        <v>1068.894356596547</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.1017774530171</v>
+        <v>908.7843700753702</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.186287608629</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.223770668217</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="D8" t="n">
-        <v>943.9580720614667</v>
+        <v>1314.262412011484</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>1247.782604635669</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719912</v>
@@ -4810,16 +4810,16 @@
         <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4834,22 +4834,22 @@
         <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.236357502977</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.236357502977</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>2212.236357502977</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="X8" t="n">
-        <v>2212.236357502977</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="Y8" t="n">
-        <v>1822.097025527165</v>
+        <v>1672.528110618234</v>
       </c>
     </row>
     <row r="9">
@@ -4883,10 +4883,10 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
         <v>896.1151064594483</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.6957245535696</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C10" t="n">
         <v>664.6957245535696</v>
@@ -4986,28 +4986,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1450.534004159847</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1450.534004159847</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U10" t="n">
-        <v>1450.534004159847</v>
+        <v>1255.744530921302</v>
       </c>
       <c r="V10" t="n">
-        <v>1195.84951595396</v>
+        <v>1255.744530921302</v>
       </c>
       <c r="W10" t="n">
-        <v>1195.84951595396</v>
+        <v>1061.621458379494</v>
       </c>
       <c r="X10" t="n">
-        <v>967.8599650559424</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="Y10" t="n">
-        <v>747.0673859124123</v>
+        <v>833.6319074814764</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,22 +5053,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>139.2347658407936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>139.2347658407936</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5652,52 +5652,52 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
         <v>2254.869721166297</v>
@@ -5737,67 +5737,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3006.404946868833</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868833</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456497</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874104</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.404946868833</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.95525898292</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>889.0190760550126</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>738.9024366426769</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>590.9893430602838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>444.0993955623734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>276.9032962772533</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>135.1914651194514</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.385853854707</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6542,19 +6542,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>923.4098145049275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>773.2931750925917</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>625.3800815101986</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>527.7722521572603</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>377.6556127449245</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>210.4595134598044</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7496,22 +7496,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079757</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>208.9397025687896</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.0765664437954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.282160794506</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>207.9407978764908</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870218</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>256.7871481632763</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
-        <v>299.8549597144492</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.45968844823102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.36248435538542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>40.30478226780077</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>74.19629618688089</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>6.257951202385101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.81829093850965</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>790633.0892625264</v>
+        <v>790633.0892625262</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772278.765390617</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914271</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="J2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
         <v>645717.2797520049</v>
@@ -26346,16 +26346,16 @@
         <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457511</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,13 +26420,13 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169501</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
@@ -26435,22 +26435,22 @@
         <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695106</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="I4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-531980.4336961226</v>
+        <v>-531980.4336961228</v>
       </c>
       <c r="C6" t="n">
-        <v>261521.2120147771</v>
+        <v>261521.2120147767</v>
       </c>
       <c r="D6" t="n">
-        <v>434285.5718046694</v>
+        <v>434285.5718046692</v>
       </c>
       <c r="E6" t="n">
-        <v>37418.40165065184</v>
+        <v>37071.02239629494</v>
       </c>
       <c r="F6" t="n">
-        <v>538307.2693964025</v>
+        <v>537959.8901420459</v>
       </c>
       <c r="G6" t="n">
-        <v>538307.2693964026</v>
+        <v>537959.8901420459</v>
       </c>
       <c r="H6" t="n">
-        <v>538307.2693964031</v>
+        <v>537959.8901420456</v>
       </c>
       <c r="I6" t="n">
-        <v>538307.2693964029</v>
+        <v>537959.8901420458</v>
       </c>
       <c r="J6" t="n">
-        <v>368893.2525703551</v>
+        <v>368545.8733159977</v>
       </c>
       <c r="K6" t="n">
-        <v>538307.2693964029</v>
+        <v>537959.8901420458</v>
       </c>
       <c r="L6" t="n">
-        <v>538307.269396403</v>
+        <v>537959.890142046</v>
       </c>
       <c r="M6" t="n">
-        <v>407422.8124921675</v>
+        <v>407075.4332378106</v>
       </c>
       <c r="N6" t="n">
-        <v>538307.2693964025</v>
+        <v>537959.8901420457</v>
       </c>
       <c r="O6" t="n">
-        <v>538307.2693964028</v>
+        <v>537959.8901420458</v>
       </c>
       <c r="P6" t="n">
-        <v>538307.2693964026</v>
+        <v>537959.8901420458</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498446</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26962,46 +26962,46 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918296</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>276.7786841780502</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>152.8130298822554</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>47.89744503962459</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>151.6737188942971</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>283.2257029190835</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>141.9148234510332</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>105.4310422139825</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>196.1197695701443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.3322111241293</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>316.1153607702047</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98.28403543668298</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>94.34115652020051</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31287,25 +31287,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
         <v>407.9506271086971</v>
@@ -31314,7 +31314,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837063</v>
@@ -31366,22 +31366,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
         <v>385.9711022274806</v>
@@ -31393,13 +31393,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31463,10 +31463,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
         <v>76.19324275662508</v>
@@ -31475,10 +31475,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>172.7144981745674</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>225.4828684302374</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>225.4828684302377</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -34216,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>353.3934907042774</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241328</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34719,7 +34719,7 @@
         <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>312.219966527431</v>
       </c>
       <c r="R2" t="n">
         <v>39.52180169138521</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>315.7261545955924</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806374</v>
       </c>
       <c r="M3" t="n">
         <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>382.0104554054905</v>
       </c>
       <c r="Q3" t="n">
         <v>276.0148132527188</v>
@@ -34941,25 +34941,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352464</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>595.098946865833</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35111,10 +35111,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>600.1700598319388</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
         <v>370.0059489821469</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>45.87687150790074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88662398579301</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88662398579324</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>219.4190832899471</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2706603.638803123</v>
+        <v>2708364.169105908</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>259.4747088127887</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885155</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>93.19404734050852</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>74.03593649474006</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>74.03593649474006</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>272.3739152478175</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.3231152050204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>60.86538463674702</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>33.93089591116134</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>65.81500930205705</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>158.3679632880445</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>192.1818418163905</v>
+        <v>181.0919561226077</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>78.91051008678141</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.81917536083697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>35.99871774582724</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>275.330023919727</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>70.04554881124464</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1205.861746419399</v>
+        <v>2030.198632229954</v>
       </c>
       <c r="C2" t="n">
-        <v>1205.861746419399</v>
+        <v>2030.198632229954</v>
       </c>
       <c r="D2" t="n">
-        <v>1205.861746419399</v>
+        <v>1671.932933623204</v>
       </c>
       <c r="E2" t="n">
-        <v>820.0734938211549</v>
+        <v>1286.144681024959</v>
       </c>
       <c r="F2" t="n">
-        <v>409.0875890315473</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
         <v>146.9919235640839</v>
@@ -4330,52 +4330,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>605.2571586872677</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>842.8799399054598</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673267</v>
+        <v>1138.950506463063</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.767147908852</v>
+        <v>1444.425612698648</v>
       </c>
       <c r="O2" t="n">
-        <v>1722.883367225487</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2241.768415604358</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466515</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2495.857364786937</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2283.839493848368</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>2030.198632229954</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.600918459333</v>
+        <v>2030.198632229954</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.600918459333</v>
+        <v>2030.198632229954</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.600918459333</v>
+        <v>2030.198632229954</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.461586483521</v>
+        <v>2030.198632229954</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4412,22 +4412,22 @@
         <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025183</v>
+        <v>900.09141451049</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.719588798006</v>
+        <v>1164.030946005978</v>
       </c>
       <c r="N3" t="n">
-        <v>1699.7427984179</v>
+        <v>1515.680492231663</v>
       </c>
       <c r="O3" t="n">
-        <v>1938.547750169359</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020795</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4442,7 +4442,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4488,7 +4488,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018416</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4512,22 +4512,22 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361123</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="X4" t="n">
         <v>1236.418535124012</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1247.782604635669</v>
+        <v>1606.048303242419</v>
       </c>
       <c r="C5" t="n">
-        <v>1247.782604635669</v>
+        <v>1606.048303242419</v>
       </c>
       <c r="D5" t="n">
         <v>1247.782604635669</v>
@@ -4561,7 +4561,7 @@
         <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4570,10 +4570,10 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.236357502978</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.173470159407</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.173470159407</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.173470159407</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1634.38244469979</v>
+        <v>1881.173470159406</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431329</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594476</v>
+        <v>797.9970924135762</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951773</v>
+        <v>1164.302981905902</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>727.1359052451305</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C7" t="n">
-        <v>558.1997223172236</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D7" t="n">
-        <v>408.0830829048879</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E7" t="n">
-        <v>260.1699893224948</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F7" t="n">
-        <v>113.2800418245844</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4725,25 +4725,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4764,13 +4764,13 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1357.566500116918</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="X7" t="n">
-        <v>1129.5769492189</v>
+        <v>1384.720487022364</v>
       </c>
       <c r="Y7" t="n">
-        <v>908.7843700753702</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.528110618234</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="C8" t="n">
-        <v>1672.528110618234</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="D8" t="n">
-        <v>1314.262412011484</v>
+        <v>588.0279984802899</v>
       </c>
       <c r="E8" t="n">
-        <v>1247.782604635669</v>
+        <v>588.0279984802899</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>581.0824977310864</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>421.114858046193</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719912</v>
@@ -4804,13 +4804,13 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135518</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477397</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
@@ -4819,7 +4819,7 @@
         <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4843,13 +4843,13 @@
         <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>1672.528110618234</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X8" t="n">
-        <v>1672.528110618234</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.528110618234</v>
+        <v>946.2936970870403</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>1104.091621317939</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1470.397510810265</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.6319074814764</v>
+        <v>833.6319074814766</v>
       </c>
       <c r="C10" t="n">
-        <v>664.6957245535696</v>
+        <v>664.6957245535697</v>
       </c>
       <c r="D10" t="n">
-        <v>514.5790851412338</v>
+        <v>514.5790851412339</v>
       </c>
       <c r="E10" t="n">
         <v>366.6659915588407</v>
@@ -4962,16 +4962,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4983,31 +4983,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="U10" t="n">
-        <v>1255.744530921302</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="V10" t="n">
-        <v>1255.744530921302</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="W10" t="n">
-        <v>1061.621458379494</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X10" t="n">
-        <v>833.6319074814764</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.6319074814764</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5472,16 +5472,16 @@
         <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5743,61 +5743,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5898,16 +5898,16 @@
         <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,13 +5934,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
         <v>1882.204779583153</v>
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>265.0731740618515</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>97.87707477673149</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7177,46 +7177,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="41">
@@ -7408,22 +7408,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1022.530292372934</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>853.5941094450269</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>703.4774700326911</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998291</v>
+        <v>555.564376450298</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7812,46 +7812,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1942.378057281682</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1652.960887244721</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1424.971336346704</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1204.178757203174</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>151.6735093079757</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>208.9397025687896</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>359.282160794506</v>
+        <v>66.98553110338651</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>207.9407978764908</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740396</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>200.7458546176089</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326898</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>119.3759750973114</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-3.282327221323107e-14</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>138.4949402405068</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>10.85445046951713</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>136.2749052347519</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>61.40075786968296</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>36.51445555167193</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>75.3754992116866</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>790633.0892625262</v>
+        <v>790633.0892625264</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.765390617</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772278.7653906168</v>
+        <v>772278.7653906167</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.7653906168</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772278.7653906167</v>
+        <v>772278.765390617</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="G2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
@@ -26346,16 +26346,16 @@
         <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="O2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898925</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457511</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>4.540033842204138e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26420,13 +26420,13 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169501</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695052</v>
@@ -26435,7 +26435,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695106</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
@@ -26447,7 +26447,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695025</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
@@ -26456,10 +26456,10 @@
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-531980.4336961228</v>
       </c>
       <c r="C6" t="n">
-        <v>261521.2120147767</v>
+        <v>261521.2120147769</v>
       </c>
       <c r="D6" t="n">
-        <v>434285.5718046692</v>
+        <v>434285.5718046696</v>
       </c>
       <c r="E6" t="n">
-        <v>37071.02239629494</v>
+        <v>37383.66372521609</v>
       </c>
       <c r="F6" t="n">
-        <v>537959.8901420459</v>
+        <v>538272.531470967</v>
       </c>
       <c r="G6" t="n">
-        <v>537959.8901420459</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="H6" t="n">
-        <v>537959.8901420456</v>
+        <v>538272.531470967</v>
       </c>
       <c r="I6" t="n">
-        <v>537959.8901420458</v>
+        <v>538272.531470967</v>
       </c>
       <c r="J6" t="n">
-        <v>368545.8733159977</v>
+        <v>368858.514644919</v>
       </c>
       <c r="K6" t="n">
-        <v>537959.8901420458</v>
+        <v>538272.5314709671</v>
       </c>
       <c r="L6" t="n">
-        <v>537959.890142046</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="M6" t="n">
-        <v>407075.4332378106</v>
+        <v>407388.0745667317</v>
       </c>
       <c r="N6" t="n">
-        <v>537959.8901420457</v>
+        <v>538272.5314709672</v>
       </c>
       <c r="O6" t="n">
-        <v>537959.8901420458</v>
+        <v>538272.5314709673</v>
       </c>
       <c r="P6" t="n">
-        <v>537959.8901420458</v>
+        <v>538272.5314709665</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
         <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522339</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918296</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>152.8130298822554</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>47.12173663291549</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>42.44752355722973</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>151.6737188942971</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>110.3599264156631</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.9148234510332</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>105.4310422139825</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>252.5921024254297</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>316.1153607702047</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>253.1570600938249</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
@@ -28067,19 +28067,19 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>94.34115652020051</v>
+        <v>105.4310422139833</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31287,40 +31287,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31673,31 +31673,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34210,31 +34210,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,43 +34438,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34532,31 +34532,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U46" t="n">
         <v>0.1345549672467222</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>315.1028144241328</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
@@ -34719,7 +34719,7 @@
         <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>312.219966527431</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>39.52180169138521</v>
@@ -34780,22 +34780,22 @@
         <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
         <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352465</v>
+        <v>355.201561844127</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>382.0104554054905</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
         <v>276.0148132527188</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671838</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>501.0609547350984</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,19 +35102,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>190.2177045321223</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>453.0121960057226</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>419.6910752148009</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961643</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
